--- a/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779D5CAA-36A4-4289-91F4-4EBA9E721479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC6F5B0-0BE5-4CFA-AF8E-9359048B3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE643EC4-97FF-4DD8-A8D9-042844813730}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1673B253-DA6C-4C8C-B942-5BA6E42E8E11}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="192">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -197,109 +197,109 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -308,16 +308,16 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,41%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
   </si>
   <si>
     <t>1,06%</t>
@@ -326,13 +326,13 @@
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,9%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,54%</t>
+    <t>98,59%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -341,16 +341,16 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>99,29%</t>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,12%</t>
+    <t>98,1%</t>
   </si>
   <si>
     <t>99,44%</t>
@@ -371,16 +371,16 @@
     <t>5,88%</t>
   </si>
   <si>
-    <t>7,66%</t>
+    <t>7,68%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
   </si>
   <si>
     <t>98,02%</t>
@@ -395,7 +395,7 @@
     <t>93,26%</t>
   </si>
   <si>
-    <t>92,34%</t>
+    <t>92,32%</t>
   </si>
   <si>
     <t>94,12%</t>
@@ -404,10 +404,10 @@
     <t>95,59%</t>
   </si>
   <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -416,190 +416,184 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>5,84%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>94,16%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>4,91%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,09%</t>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
   </si>
   <si>
     <t>95,92%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
   </si>
   <si>
     <t>96,45%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,73%</t>
   </si>
   <si>
     <t>7,78%</t>
   </si>
   <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>96,75%</t>
@@ -608,19 +602,19 @@
     <t>92,22%</t>
   </si>
   <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16F9576-7E8D-4B68-BA17-C291FC6D2902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88CB569-48EB-48DB-8A31-5B29C5DBA3A6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1699,7 +1693,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1750,7 +1744,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1783,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B6B4F8-3E87-4B58-9E3B-7873429CC2FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAF5F3C-8867-45CF-A4E6-9E28163D079A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08BABE97-FF51-4C1D-BD2A-D76573F4559D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532FAB3E-7671-476C-AA7D-87BE3AC6463B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3285,7 +3279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{072EB848-ED29-4D3D-AE38-2CE03D80EB86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B74CDE3-01F1-4118-B62D-27465A49278F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3597,10 +3591,10 @@
         <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,28 +3609,28 @@
         <v>2093071</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>2699</v>
       </c>
       <c r="I8" s="7">
-        <v>2094691</v>
+        <v>2094692</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>4623</v>
@@ -3645,13 +3639,13 @@
         <v>4187763</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,7 +3672,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3719,13 +3713,13 @@
         <v>20152</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3734,13 +3728,13 @@
         <v>29117</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3749,13 +3743,13 @@
         <v>49270</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3764,13 @@
         <v>652887</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -3874,13 +3868,13 @@
         <v>132239</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>451</v>
@@ -3889,13 +3883,13 @@
         <v>295776</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -3904,13 +3898,13 @@
         <v>428015</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,16 +3916,16 @@
         <v>3227</v>
       </c>
       <c r="D14" s="7">
-        <v>3244456</v>
+        <v>3244455</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>4901</v>
@@ -3940,28 +3934,28 @@
         <v>3503584</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>8128</v>
       </c>
       <c r="N14" s="7">
-        <v>6748040</v>
+        <v>6748039</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3973,7 +3967,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -4003,7 +3997,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC6F5B0-0BE5-4CFA-AF8E-9359048B3A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED36E1B8-18D6-45BE-A4E2-1538576EA728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1673B253-DA6C-4C8C-B942-5BA6E42E8E11}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC5D24B8-C84A-4181-AB1C-69898E6D0D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -191,16 +191,16 @@
     <t>99,77%</t>
   </si>
   <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2015 (Tasa respuesta: 100,0%)</t>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2016 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
   </si>
   <si>
     <t>13,08%</t>
@@ -209,31 +209,31 @@
     <t>11,07%</t>
   </si>
   <si>
-    <t>15,61%</t>
+    <t>15,67%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>94,88%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,39%</t>
+    <t>84,33%</t>
   </si>
   <si>
     <t>88,93%</t>
@@ -242,16 +242,16 @@
     <t>91,1%</t>
   </si>
   <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,28%</t>
+    <t>1,33%</t>
   </si>
   <si>
     <t>2,52%</t>
@@ -260,19 +260,16 @@
     <t>4,98%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>98,15%</t>
@@ -281,25 +278,22 @@
     <t>97,48%</t>
   </si>
   <si>
-    <t>98,72%</t>
+    <t>98,67%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -308,31 +302,31 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,41%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,59%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -341,256 +335,262 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>99,29%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>4,41%</t>
   </si>
   <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>96,08%</t>
-  </si>
-  <si>
-    <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
   </si>
   <si>
     <t>95,27%</t>
@@ -1026,7 +1026,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E88CB569-48EB-48DB-8A31-5B29C5DBA3A6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB1F0A2-AFC0-4B02-8BE3-E59C11039438}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1353,7 +1353,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1404,7 +1404,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1663,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1714,7 +1714,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1777,7 +1777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAF5F3C-8867-45CF-A4E6-9E28163D079A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA60BF-0B92-4F2B-B93F-4AA39375B8E7}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,7 +2528,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532FAB3E-7671-476C-AA7D-87BE3AC6463B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8ED49D-A89E-4082-A95E-DC0BD192088F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2843,7 @@
         <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2858,13 @@
         <v>2038003</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>1818</v>
@@ -2873,13 +2873,13 @@
         <v>1889286</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>3734</v>
@@ -2888,13 +2888,13 @@
         <v>3927289</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2962,13 @@
         <v>2888</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2977,13 +2977,13 @@
         <v>8781</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2992,13 +2992,13 @@
         <v>11669</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3013,13 @@
         <v>543998</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>518</v>
@@ -3028,13 +3028,13 @@
         <v>540359</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>1016</v>
@@ -3043,13 +3043,13 @@
         <v>1084357</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3117,13 @@
         <v>66891</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -3132,13 +3132,13 @@
         <v>237917</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
@@ -3147,13 +3147,13 @@
         <v>304808</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3168,13 @@
         <v>3310727</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>3111</v>
@@ -3183,13 +3183,13 @@
         <v>3294183</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>6260</v>
@@ -3198,13 +3198,13 @@
         <v>6604910</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B74CDE3-01F1-4118-B62D-27465A49278F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F12AAB-4995-47A7-A99B-F1C454D1D923}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,7 +3296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3403,13 +3403,13 @@
         <v>43137</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>187</v>
@@ -3418,13 +3418,13 @@
         <v>111829</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>237</v>
@@ -3433,13 +3433,13 @@
         <v>154965</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3454,13 @@
         <v>498497</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>1240</v>
@@ -3469,13 +3469,13 @@
         <v>724124</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>1881</v>
@@ -3484,13 +3484,13 @@
         <v>1222621</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3558,13 @@
         <v>68951</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -3573,13 +3573,13 @@
         <v>154829</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>290</v>
@@ -3588,13 +3588,13 @@
         <v>223780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,13 +3609,13 @@
         <v>2093071</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>2699</v>
@@ -3624,13 +3624,13 @@
         <v>2094692</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>4623</v>
@@ -3639,13 +3639,13 @@
         <v>4187763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3713,13 @@
         <v>20152</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3728,13 +3728,13 @@
         <v>29117</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3743,13 +3743,13 @@
         <v>49270</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3764,13 @@
         <v>652887</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -3779,13 +3779,13 @@
         <v>684769</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1624</v>
@@ -3794,13 +3794,13 @@
         <v>1337656</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3868,13 @@
         <v>132239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="H13" s="7">
         <v>451</v>
@@ -3883,13 +3883,13 @@
         <v>295776</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -3898,13 +3898,13 @@
         <v>428015</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3919,7 @@
         <v>3244455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>184</v>

--- a/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B_x_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED36E1B8-18D6-45BE-A4E2-1538576EA728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72EFA560-0FBC-4DB8-A7EA-0765EEA6453B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC5D24B8-C84A-4181-AB1C-69898E6D0D3F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B98662C5-A735-4F90-8A65-AFBF44FA8A1B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="194">
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -197,103 +197,109 @@
     <t>3,4%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
   </si>
   <si>
     <t>13,08%</t>
   </si>
   <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
   </si>
   <si>
     <t>8,9%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
   </si>
   <si>
     <t>86,92%</t>
   </si>
   <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>91,1%</t>
   </si>
   <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>4,98%</t>
   </si>
   <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,88%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>98,15%</t>
   </si>
   <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
   </si>
   <si>
     <t>95,02%</t>
   </si>
   <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>97,12%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>0,53%</t>
@@ -302,7 +308,7 @@
     <t>0,16%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,46%</t>
   </si>
   <si>
     <t>1,6%</t>
@@ -311,22 +317,22 @@
     <t>0,71%</t>
   </si>
   <si>
-    <t>3,2%</t>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
   </si>
   <si>
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,54%</t>
   </si>
   <si>
     <t>99,84%</t>
@@ -335,7 +341,7 @@
     <t>98,4%</t>
   </si>
   <si>
-    <t>96,8%</t>
+    <t>97,07%</t>
   </si>
   <si>
     <t>99,29%</t>
@@ -344,25 +350,25 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
   </si>
   <si>
     <t>1,98%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>6,74%</t>
   </si>
   <si>
-    <t>5,87%</t>
+    <t>5,88%</t>
   </si>
   <si>
     <t>7,66%</t>
@@ -371,7 +377,7 @@
     <t>4,41%</t>
   </si>
   <si>
-    <t>3,96%</t>
+    <t>3,97%</t>
   </si>
   <si>
     <t>4,97%</t>
@@ -380,10 +386,10 @@
     <t>98,02%</t>
   </si>
   <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
   </si>
   <si>
     <t>93,26%</t>
@@ -392,7 +398,7 @@
     <t>92,34%</t>
   </si>
   <si>
-    <t>94,13%</t>
+    <t>94,12%</t>
   </si>
   <si>
     <t>95,59%</t>
@@ -401,7 +407,7 @@
     <t>95,03%</t>
   </si>
   <si>
-    <t>96,04%</t>
+    <t>96,03%</t>
   </si>
   <si>
     <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad) en 2023 (Tasa respuesta: 100,0%)</t>
@@ -410,211 +416,211 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>11,25%</t>
   </si>
   <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
   </si>
   <si>
     <t>92,04%</t>
   </si>
   <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>86,62%</t>
   </si>
   <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
   </si>
   <si>
     <t>88,75%</t>
   </si>
   <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>3,19%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>5,84%</t>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>96,81%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
   </si>
   <si>
     <t>94,93%</t>
   </si>
   <si>
-    <t>94,16%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>4,91%</t>
   </si>
   <si>
     <t>4,08%</t>
   </si>
   <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
   </si>
   <si>
     <t>3,55%</t>
   </si>
   <si>
-    <t>2,7%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>4,68%</t>
   </si>
   <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>95,32%</t>
   </si>
   <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
     <t>96,75%</t>
   </si>
   <si>
     <t>92,22%</t>
   </si>
   <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
   </si>
   <si>
     <t>94,04%</t>
   </si>
   <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BB1F0A2-AFC0-4B02-8BE3-E59C11039438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B6D019E-7498-4C86-A8E8-9A8931B544EE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1353,7 +1359,7 @@
         <v>1649</v>
       </c>
       <c r="D8" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -1404,7 +1410,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>19</v>
@@ -1663,7 +1669,7 @@
         <v>3214</v>
       </c>
       <c r="D14" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -1693,7 +1699,7 @@
         <v>6511</v>
       </c>
       <c r="N14" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>17</v>
@@ -1714,7 +1720,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -1744,7 +1750,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1777,7 +1783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BA60BF-0B92-4F2B-B93F-4AA39375B8E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C5EAB7-C4BE-4138-9503-C10D56892EDB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2528,7 +2534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D8ED49D-A89E-4082-A95E-DC0BD192088F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EE256-05AB-4080-B365-F60BC8EE4414}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2843,7 +2849,7 @@
         <v>76</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2858,13 +2864,13 @@
         <v>2038003</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" s="7">
         <v>1818</v>
@@ -2873,13 +2879,13 @@
         <v>1889286</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M8" s="7">
         <v>3734</v>
@@ -2888,13 +2894,13 @@
         <v>3927289</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2962,13 +2968,13 @@
         <v>2888</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -2977,13 +2983,13 @@
         <v>8781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -2992,13 +2998,13 @@
         <v>11669</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3013,13 +3019,13 @@
         <v>543998</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H11" s="7">
         <v>518</v>
@@ -3028,13 +3034,13 @@
         <v>540359</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M11" s="7">
         <v>1016</v>
@@ -3043,13 +3049,13 @@
         <v>1084357</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3123,13 @@
         <v>66891</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H13" s="7">
         <v>215</v>
@@ -3132,13 +3138,13 @@
         <v>237917</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>281</v>
@@ -3147,13 +3153,13 @@
         <v>304808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,13 +3174,13 @@
         <v>3310727</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>3111</v>
@@ -3183,13 +3189,13 @@
         <v>3294183</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="M14" s="7">
         <v>6260</v>
@@ -3198,13 +3204,13 @@
         <v>6604910</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,7 +3285,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98F12AAB-4995-47A7-A99B-F1C454D1D923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DA218C-018B-4F75-B791-84951119D9C1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3296,7 +3302,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3403,13 +3409,13 @@
         <v>43137</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>187</v>
@@ -3418,13 +3424,13 @@
         <v>111829</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>237</v>
@@ -3433,13 +3439,13 @@
         <v>154965</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3454,13 +3460,13 @@
         <v>498497</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H5" s="7">
         <v>1240</v>
@@ -3469,13 +3475,13 @@
         <v>724124</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>1881</v>
@@ -3484,13 +3490,13 @@
         <v>1222621</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,13 +3564,13 @@
         <v>68951</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>222</v>
@@ -3573,13 +3579,13 @@
         <v>154829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>290</v>
@@ -3588,13 +3594,13 @@
         <v>223780</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,28 +3615,28 @@
         <v>2093071</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>2699</v>
       </c>
       <c r="I8" s="7">
-        <v>2094692</v>
+        <v>2094691</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>4623</v>
@@ -3639,13 +3645,13 @@
         <v>4187763</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,7 +3678,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3713,13 +3719,13 @@
         <v>20152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -3728,13 +3734,13 @@
         <v>29117</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3743,13 +3749,13 @@
         <v>49270</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3770,13 @@
         <v>652887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="H11" s="7">
         <v>962</v>
@@ -3779,13 +3785,13 @@
         <v>684769</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M11" s="7">
         <v>1624</v>
@@ -3794,13 +3800,13 @@
         <v>1337656</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3868,13 +3874,13 @@
         <v>132239</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
         <v>451</v>
@@ -3883,13 +3889,13 @@
         <v>295776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M13" s="7">
         <v>588</v>
@@ -3898,13 +3904,13 @@
         <v>428015</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,16 +3922,16 @@
         <v>3227</v>
       </c>
       <c r="D14" s="7">
-        <v>3244455</v>
+        <v>3244456</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>4901</v>
@@ -3934,28 +3940,28 @@
         <v>3503584</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>8128</v>
       </c>
       <c r="N14" s="7">
-        <v>6748039</v>
+        <v>6748040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,7 +3973,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
@@ -3997,7 +4003,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
